--- a/xls_works/testPRG_vopr_db.xlsx
+++ b/xls_works/testPRG_vopr_db.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\sibTest\xls_works\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6301319-585A-4206-B125-3AD381B2B495}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="216" yWindow="168" windowWidth="22776" windowHeight="11940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="db_vopr" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="db_vopr" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,75 +26,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Номер вопроса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вопрос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответ 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответ 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответ 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какой будет результат выполнения следующего кода:
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>Номер вопроса</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>Ответ 1</t>
+  </si>
+  <si>
+    <t>Ответ 2</t>
+  </si>
+  <si>
+    <t>Ответ 3</t>
+  </si>
+  <si>
+    <t>Ответ 4</t>
+  </si>
+  <si>
+    <t>Ответ 5</t>
+  </si>
+  <si>
+    <t>Какой будет результат выполнения следующего кода:
 print(12//5)</t>
   </si>
   <si>
-    <t xml:space="preserve">SyntaxError: invalid syntax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какой будет результат выполнения следующего кода:
+    <t>SyntaxError: invalid syntax</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Какой будет результат выполнения следующего кода:
 print(12%5)</t>
+  </si>
+  <si>
+    <t>Какой будет результат выполнения следующего кода:
+print("Петя")</t>
+  </si>
+  <si>
+    <t>Петя</t>
+  </si>
+  <si>
+    <t>Маша</t>
+  </si>
+  <si>
+    <t>вроде Пе</t>
+  </si>
+  <si>
+    <t>Семеныч</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -107,76 +107,55 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -235,30 +214,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="15.33"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -281,8 +568,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -291,21 +578,21 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -314,32 +601,44 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="4">
         <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
@@ -349,8 +648,8 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
@@ -360,8 +659,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
@@ -371,7 +670,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
@@ -380,7 +679,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
@@ -389,7 +688,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
@@ -398,7 +697,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
@@ -407,7 +706,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
@@ -416,7 +715,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
@@ -425,7 +724,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
@@ -434,7 +733,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
@@ -443,7 +742,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
@@ -452,7 +751,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
@@ -461,7 +760,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
@@ -470,7 +769,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
@@ -479,7 +778,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
@@ -488,7 +787,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
@@ -497,7 +796,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
@@ -506,7 +805,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
@@ -515,7 +814,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -525,35 +824,22 @@
       <c r="G24" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/xls_works/testPRG_vopr_db.xlsx
+++ b/xls_works/testPRG_vopr_db.xlsx
@@ -1,100 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\sibTest\xls_works\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6301319-585A-4206-B125-3AD381B2B495}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="168" windowWidth="22776" windowHeight="11940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="216" yWindow="168" windowWidth="22776" windowHeight="11940" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="db_vopr" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="db_vopr" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>Номер вопроса</t>
-  </si>
-  <si>
-    <t>Вопрос</t>
-  </si>
-  <si>
-    <t>Ответ 1</t>
-  </si>
-  <si>
-    <t>Ответ 2</t>
-  </si>
-  <si>
-    <t>Ответ 3</t>
-  </si>
-  <si>
-    <t>Ответ 4</t>
-  </si>
-  <si>
-    <t>Ответ 5</t>
-  </si>
-  <si>
-    <t>Какой будет результат выполнения следующего кода:
-print(12//5)</t>
-  </si>
-  <si>
-    <t>SyntaxError: invalid syntax</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Какой будет результат выполнения следующего кода:
-print(12%5)</t>
-  </si>
-  <si>
-    <t>Какой будет результат выполнения следующего кода:
-print("Петя")</t>
-  </si>
-  <si>
-    <t>Петя</t>
-  </si>
-  <si>
-    <t>Маша</t>
-  </si>
-  <si>
-    <t>вроде Пе</t>
-  </si>
-  <si>
-    <t>Семеныч</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,7 +44,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,32 +67,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -224,14 +170,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -531,315 +469,710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="15" width="15.33203125" customWidth="1"/>
+    <col width="8.6640625" customWidth="1" min="1" max="1"/>
+    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" min="3" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="28.8" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Номер вопроса</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Ответ 1</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Ответ 2</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Ответ 3</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Ответ 4</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>Ответ 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="28.8" customHeight="1">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print(12//5)</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="28.8" customHeight="1">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print(12%5)</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" customHeight="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print("Петя")</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Семеныч</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>вроде Пе</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Петя</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Номер вопроса</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ ячеек верных ответов</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ответ 1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Ответ 2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ответ 3</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ответ 4</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ответ 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print(12//5)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print(12%5)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[2, 4]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print("Петя")</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[3, 5]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Семеныч</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>вроде Пе</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Петя</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Номер вопроса</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ ячеек верных ответов</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ответ 1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Ответ 2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ответ 3</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ответ 4</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ответ 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print(12//5)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print(12%5)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[2, 4]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Какой будет результат выполнения следующего кода:
+print("Петя")</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[3, 5]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SyntaxError: invalid syntax</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Семеныч</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>вроде Пе</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Петя</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/xls_works/testPRG_vopr_db.xlsx
+++ b/xls_works/testPRG_vopr_db.xlsx
@@ -991,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,26 +1152,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
